--- a/results/anova/48h/anova_dky.xlsx
+++ b/results/anova/48h/anova_dky.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\panxuhao\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A82B24-E1DE-423D-BE53-0CB05BAFCEA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E37005-7CA1-4A7F-AD2C-1A9C19763536}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>组1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,54 @@
   </si>
   <si>
     <t>感染部位拼接 (血液百分比)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>血红蛋白</t>
+  </si>
+  <si>
+    <t>血小板</t>
+  </si>
+  <si>
+    <t>总胆</t>
+  </si>
+  <si>
+    <t>间胆</t>
+  </si>
+  <si>
+    <t>白蛋白</t>
+  </si>
+  <si>
+    <t>AST</t>
+  </si>
+  <si>
+    <t>ALT</t>
+  </si>
+  <si>
+    <t>肌酐</t>
+  </si>
+  <si>
+    <t>入量</t>
+  </si>
+  <si>
+    <t>出量</t>
+  </si>
+  <si>
+    <t>入量-出量</t>
+  </si>
+  <si>
+    <t>CRRT（是 百分比）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深静脉置管（是 百分比）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血管活性药物（是 百分比）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,9 +183,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -181,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -193,6 +242,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -475,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F22"/>
+  <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -903,6 +955,306 @@
         <v>2.431E-3</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="9">
+        <v>22.543030303030299</v>
+      </c>
+      <c r="C23" s="9">
+        <v>23.010444444444399</v>
+      </c>
+      <c r="D23" s="9">
+        <v>23.760793650793602</v>
+      </c>
+      <c r="E23" s="9">
+        <v>22.232965116279001</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.10362633012778399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="9">
+        <v>88.242424242424207</v>
+      </c>
+      <c r="C24" s="9">
+        <v>111.822222222222</v>
+      </c>
+      <c r="D24" s="9">
+        <v>110.222222222222</v>
+      </c>
+      <c r="E24" s="9">
+        <v>102.06976744185999</v>
+      </c>
+      <c r="F24" s="4">
+        <v>7.8631114705506901E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="9">
+        <v>156.84848484848399</v>
+      </c>
+      <c r="C25" s="9">
+        <v>168.933333333333</v>
+      </c>
+      <c r="D25" s="9">
+        <v>170.60317460317401</v>
+      </c>
+      <c r="E25" s="9">
+        <v>180.41279069767401</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.61050548332364296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="9">
+        <v>47.290909090908997</v>
+      </c>
+      <c r="C26" s="9">
+        <v>25.0688888888888</v>
+      </c>
+      <c r="D26" s="9">
+        <v>19.073015873015802</v>
+      </c>
+      <c r="E26" s="9">
+        <v>22.181976744185999</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.12603770022947999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="9">
+        <v>8.1484848484848396</v>
+      </c>
+      <c r="C27" s="9">
+        <v>9.8733333333333295</v>
+      </c>
+      <c r="D27" s="9">
+        <v>8.0904761904761902</v>
+      </c>
+      <c r="E27" s="9">
+        <v>8.4145348837209308</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.80341060621205895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="9">
+        <v>28.175757575757501</v>
+      </c>
+      <c r="C28" s="9">
+        <v>27.5133333333333</v>
+      </c>
+      <c r="D28" s="9">
+        <v>28.7555555555555</v>
+      </c>
+      <c r="E28" s="9">
+        <v>27.240697674418598</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.38257200763577998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="9">
+        <v>162.54545454545399</v>
+      </c>
+      <c r="C29" s="9">
+        <v>132.91111111111101</v>
+      </c>
+      <c r="D29" s="9">
+        <v>183</v>
+      </c>
+      <c r="E29" s="9">
+        <v>146.56395348837199</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.92176089339355105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="9">
+        <v>52.454545454545404</v>
+      </c>
+      <c r="C30" s="9">
+        <v>79.844444444444406</v>
+      </c>
+      <c r="D30" s="9">
+        <v>102.95238095238</v>
+      </c>
+      <c r="E30" s="9">
+        <v>74.436046511627893</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.59763362814672405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="9">
+        <v>312.43636363636301</v>
+      </c>
+      <c r="C31" s="9">
+        <v>161.428888888888</v>
+      </c>
+      <c r="D31" s="9">
+        <v>124.879365079365</v>
+      </c>
+      <c r="E31" s="9">
+        <v>168.10465116278999</v>
+      </c>
+      <c r="F31" s="4">
+        <v>9.6743673267735906E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0.48484848484848397</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.17777777777777701</v>
+      </c>
+      <c r="D32" s="8">
+        <v>9.5238095238095205E-2</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0.15116279069767399</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1.10855000685091E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0.69696969696969702</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.71111111111111103</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0.73015873015873001</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0.76162790697674398</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.81240878982264497</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="9">
+        <v>3535.8818181818101</v>
+      </c>
+      <c r="C34" s="9">
+        <v>3815.5355555555502</v>
+      </c>
+      <c r="D34" s="9">
+        <v>3813.7746031746001</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2957.7470930232498</v>
+      </c>
+      <c r="F34" s="4">
+        <v>5.8531208026795097E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="9">
+        <v>1508.45454545454</v>
+      </c>
+      <c r="C35" s="9">
+        <v>2462.9777777777699</v>
+      </c>
+      <c r="D35" s="9">
+        <v>2129.3015873015802</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2133.9011627906898</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3.17674738150754E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0.69696969696969702</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.75555555555555498</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0.69841269841269804</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0.65697674418604601</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.632999477528294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="9">
+        <v>2027.4272727272701</v>
+      </c>
+      <c r="C37" s="9">
+        <v>1352.5577777777701</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1684.4730158730099</v>
+      </c>
+      <c r="E37" s="9">
+        <v>823.84593023255798</v>
+      </c>
+      <c r="F37" s="4">
+        <v>5.8630395755950103E-4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/anova/48h/anova_dky.xlsx
+++ b/results/anova/48h/anova_dky.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\panxuhao\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E37005-7CA1-4A7F-AD2C-1A9C19763536}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C984C95C-17D6-4F00-B922-6FD38131A27F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>组1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,27 @@
   <si>
     <t>血管活性药物（是 百分比）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢性心脏疾病</t>
+  </si>
+  <si>
+    <t>慢性肝脏疾病</t>
+  </si>
+  <si>
+    <t>慢性肺疾病</t>
+  </si>
+  <si>
+    <t>慢性肾脏疾病</t>
+  </si>
+  <si>
+    <t>高血压</t>
+  </si>
+  <si>
+    <t>糖尿病</t>
+  </si>
+  <si>
+    <t>肿瘤</t>
   </si>
 </sst>
 </file>
@@ -527,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F37"/>
+  <dimension ref="A2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1255,6 +1276,152 @@
         <v>5.8630395755950103E-4</v>
       </c>
     </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="8">
+        <v>6.0606060606060601E-2</v>
+      </c>
+      <c r="C39" s="8">
+        <v>2.2222222222222199E-2</v>
+      </c>
+      <c r="D39" s="8">
+        <v>3.1746031746031703E-2</v>
+      </c>
+      <c r="E39" s="8">
+        <v>4.6511627906976702E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.80794732933565505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="8">
+        <v>3.03030303030303E-2</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0.17460317460317401</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0.19767441860465099</v>
+      </c>
+      <c r="F40">
+        <v>0.111475476935374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="8">
+        <v>6.0606060606060601E-2</v>
+      </c>
+      <c r="C41" s="8">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1.5873015873015799E-2</v>
+      </c>
+      <c r="E41" s="8">
+        <v>6.9767441860465101E-2</v>
+      </c>
+      <c r="F41">
+        <v>0.43949753725762403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="8">
+        <v>0.27272727272727199</v>
+      </c>
+      <c r="C42" s="8">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="D42" s="8">
+        <v>9.5238095238095205E-2</v>
+      </c>
+      <c r="E42" s="8">
+        <v>0.19767441860465099</v>
+      </c>
+      <c r="F42">
+        <v>2.35527575009532E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0.60606060606060597</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0.51744186046511598</v>
+      </c>
+      <c r="F44">
+        <v>0.39084986958040302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="8">
+        <v>0.30303030303030298</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0.28888888888888797</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0.206349206349206</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0.26162790697674398</v>
+      </c>
+      <c r="F45">
+        <v>0.69461478448397596</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="8">
+        <v>0.27272727272727199</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0.24444444444444399</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0.19047619047618999</v>
+      </c>
+      <c r="E46" s="8">
+        <v>0.23837209302325499</v>
+      </c>
+      <c r="F46">
+        <v>0.80624170470759005</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
